--- a/biology/Zoologie/Brassemer_à_tête_blanche/Brassemer_à_tête_blanche.xlsx
+++ b/biology/Zoologie/Brassemer_à_tête_blanche/Brassemer_à_tête_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brassemer_%C3%A0_t%C3%AAte_blanche</t>
+          <t>Brassemer_à_tête_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tachyeres leucocephalus
 Le Brassemer à tête blanche (Tachyeres leucocephalus) est une espèce de palmipède appartenant à la famille des Anatidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brassemer_%C3%A0_t%C3%AAte_blanche</t>
+          <t>Brassemer_à_tête_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesurant entre 61 et 74 cm, ce brassemer se reconnaît à sa tête blanche pour le mâle adulte.
 C'est un oiseau inapte au vol.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brassemer_%C3%A0_t%C3%AAte_blanche</t>
+          <t>Brassemer_à_tête_blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit le long de la côte est de Patagonie (de la péninsule Valdés à la péninsule Stokes).
 Comme les autres brassemers, cette espèce fréquente les côtes rocheuses.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brassemer_%C3%A0_t%C3%AAte_blanche</t>
+          <t>Brassemer_à_tête_blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est plus grégaire que les autres membres du groupe. Elle niche parfois en colonies ; le nid est placé dans un buisson près du rivage.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brassemer_%C3%A0_t%C3%AAte_blanche</t>
+          <t>Brassemer_à_tête_blanche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Populations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La population est estimée à 5 000 individus.
 </t>
